--- a/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學甲(上).xlsx
+++ b/document/data source_課程資料/普高/skill_curriculum/skill_curriculum_數學甲(上).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\document\data source_課程資料\普高\skill_curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -515,8 +515,8 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -663,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -692,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -837,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -866,7 +866,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -895,7 +895,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1098,7 +1098,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>40</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1272,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
         <v>20</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1417,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1504,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1533,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1591,7 +1591,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1620,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>20</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1678,11 +1678,12 @@
         <v>30</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>